--- a/515790.xlsx
+++ b/515790.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1053"/>
+  <dimension ref="A1:L1061"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42575,6 +42575,326 @@
         </is>
       </c>
     </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>3724917</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>238791904</v>
+      </c>
+      <c r="G1054" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1054" t="inlineStr">
+        <is>
+          <t>2025-04-24 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>3686383</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>237165536</v>
+      </c>
+      <c r="G1055" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1055" t="inlineStr">
+        <is>
+          <t>2025-04-25 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>3266238</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>210847648</v>
+      </c>
+      <c r="G1056" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1056" t="inlineStr">
+        <is>
+          <t>2025-04-28 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>2509364</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>161500928</v>
+      </c>
+      <c r="G1057" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1057" t="inlineStr">
+        <is>
+          <t>2025-04-29 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>2815865</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>181403872</v>
+      </c>
+      <c r="G1058" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1058" t="inlineStr">
+        <is>
+          <t>2025-04-30 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>4207162</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>274459008</v>
+      </c>
+      <c r="G1059" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1059" t="inlineStr">
+        <is>
+          <t>2025-05-06 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>3586026</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>236753760</v>
+      </c>
+      <c r="G1060" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1060" t="inlineStr">
+        <is>
+          <t>2025-05-07 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>5967585</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>398058272</v>
+      </c>
+      <c r="G1061" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1061" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1061" t="inlineStr">
+        <is>
+          <t>2025-05-08 15:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
